--- a/AVC_Docs/AVC_CmdAndTlmAndTest_v3.xlsx
+++ b/AVC_Docs/AVC_CmdAndTlmAndTest_v3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-75" windowWidth="15360" windowHeight="11025" tabRatio="828" firstSheet="3" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="-75" windowWidth="15360" windowHeight="11025" tabRatio="828" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Rpi to Iop Cmds" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Rpi to GUI Tlm-Diag" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">'GUI to Rpi Cmds'!$A$1:$G$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">'GUI to Rpi Cmds'!$A$1:$G$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'IOP Tlm to Rpi'!$A$1:$F$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'Rpi to GUI Tlm-Rpi'!$A$1:$H$9</definedName>
   </definedNames>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="283">
   <si>
     <t>Notes</t>
   </si>
@@ -1081,6 +1081,15 @@
 Mode 0 - BIST/Reset - causes a reset of the processor
 Mode 1 - Normal - go into 'nominal' mode
 Mode 2 - Estop - cause an immediate estop</t>
+  </si>
+  <si>
+    <t>Exit Program</t>
+  </si>
+  <si>
+    <t>This will cause the main program to exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ascii '1' </t>
   </si>
 </sst>
 </file>
@@ -1481,7 +1490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1725,6 +1734,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2396,7 +2411,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="101.45" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>124</v>
       </c>
@@ -2419,7 +2434,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="43" customFormat="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" s="43" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="43" t="s">
         <v>188</v>
       </c>
@@ -2429,7 +2444,7 @@
       <c r="D18" s="44"/>
       <c r="F18" s="44"/>
     </row>
-    <row r="19" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>54</v>
       </c>
@@ -2444,7 +2459,7 @@
       </c>
       <c r="F19" s="17"/>
     </row>
-    <row r="20" spans="1:7" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>53</v>
       </c>
@@ -2459,72 +2474,72 @@
       </c>
       <c r="F20" s="17"/>
     </row>
-    <row r="21" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="D21" s="17"/>
       <c r="F21" s="17"/>
     </row>
-    <row r="22" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="6" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="176.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>42</v>
       </c>
@@ -2532,7 +2547,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>43</v>
       </c>
@@ -2540,7 +2555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>44</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B42" s="3"/>
     </row>
   </sheetData>
@@ -4111,10 +4126,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J22"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22:I24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4130,7 +4145,7 @@
     <col min="12" max="16384" width="9.140625" style="71"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="45" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" s="45" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>191</v>
       </c>
@@ -4153,90 +4168,90 @@
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="49" customFormat="1" ht="130.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E2" s="84">
+        <v>0</v>
+      </c>
+      <c r="F2" s="84">
+        <v>0</v>
+      </c>
+      <c r="G2" s="85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="49" customFormat="1" ht="135" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>199</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="56">
-        <v>0</v>
-      </c>
-      <c r="G2" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="49" customFormat="1" ht="57.95" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>201</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" s="56" t="s">
-        <v>265</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>203</v>
+        <v>223</v>
+      </c>
+      <c r="F3" s="56">
+        <v>0</v>
       </c>
       <c r="G3" s="75">
         <v>0</v>
       </c>
-      <c r="J3" s="49" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:10" s="49" customFormat="1" ht="57.95" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
-        <v>266</v>
+        <v>201</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E4" s="56" t="s">
-        <v>208</v>
-      </c>
-      <c r="F4" s="56">
-        <v>0</v>
+        <v>265</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>203</v>
       </c>
       <c r="G4" s="75">
         <v>0</v>
+      </c>
+      <c r="J4" s="49" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E5" s="56" t="s">
         <v>208</v>
@@ -4248,159 +4263,159 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="20" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="56" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="56">
+        <v>0</v>
+      </c>
+      <c r="G6" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="E6" s="56">
-        <v>0</v>
-      </c>
-      <c r="F6" s="56">
-        <v>0</v>
-      </c>
-      <c r="G6" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="49" customFormat="1" ht="144.94999999999999" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
+      <c r="E7" s="56">
+        <v>0</v>
+      </c>
+      <c r="F7" s="56">
+        <v>0</v>
+      </c>
+      <c r="G7" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="49" customFormat="1" ht="144.94999999999999" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
         <v>214</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="F7" s="56">
-        <v>0</v>
-      </c>
-      <c r="G7" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
-      <c r="A8" s="20" t="s">
-        <v>241</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>215</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" s="56" t="s">
+        <v>218</v>
+      </c>
+      <c r="F8" s="56">
+        <v>0</v>
+      </c>
+      <c r="G8" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="49" customFormat="1" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D9" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="E8" s="56">
-        <v>0</v>
-      </c>
-      <c r="F8" s="56">
-        <v>0</v>
-      </c>
-      <c r="G8" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="49" customFormat="1" ht="101.45" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+      <c r="E9" s="56">
+        <v>0</v>
+      </c>
+      <c r="F9" s="56">
+        <v>0</v>
+      </c>
+      <c r="G9" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="49" customFormat="1" ht="101.45" x14ac:dyDescent="0.35">
+      <c r="A10" s="20" t="s">
         <v>34</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="E9" s="56" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="G9" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="49" customFormat="1" ht="159.6" x14ac:dyDescent="0.35">
-      <c r="A10" s="20" t="s">
-        <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="56" t="s">
+        <v>204</v>
+      </c>
+      <c r="F10" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="49" customFormat="1" ht="159.6" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E11" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="56">
-        <v>0</v>
-      </c>
-      <c r="G10" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="49" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+      <c r="F11" s="56">
+        <v>0</v>
+      </c>
+      <c r="G11" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="49" customFormat="1" ht="29.1" x14ac:dyDescent="0.35">
+      <c r="A12" s="20" t="s">
         <v>190</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E11" s="56">
-        <v>0</v>
-      </c>
-      <c r="F11" s="56">
-        <v>0</v>
-      </c>
-      <c r="G11" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="20" t="s">
-        <v>48</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" s="56" t="s">
-        <v>12</v>
+        <v>156</v>
+      </c>
+      <c r="E12" s="56">
+        <v>0</v>
       </c>
       <c r="F12" s="56">
         <v>0</v>
@@ -4409,115 +4424,113 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="49" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="49" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" s="75" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="F13" s="56">
+        <v>0</v>
+      </c>
+      <c r="G13" s="75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="49" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E14" s="56" t="s">
         <v>14</v>
       </c>
       <c r="F14" s="56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G14" s="75" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E15" s="56" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="F15" s="56" t="s">
-        <v>72</v>
-      </c>
-      <c r="G15" s="75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="G15" s="75" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="49" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>198</v>
+        <v>69</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E16" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" s="56">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>72</v>
       </c>
       <c r="G16" s="75">
         <v>0</v>
       </c>
-      <c r="I16" s="71"/>
-      <c r="J16" s="71"/>
-    </row>
-    <row r="17" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:10" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>238</v>
+        <v>198</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="56">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>30</v>
       </c>
       <c r="F17" s="56">
         <v>0</v>
@@ -4528,21 +4541,21 @@
       <c r="I17" s="71"/>
       <c r="J17" s="71"/>
     </row>
-    <row r="18" spans="1:10" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>67</v>
+        <v>238</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>270</v>
+        <v>240</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="56" t="s">
-        <v>133</v>
+        <v>163</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0</v>
       </c>
       <c r="F18" s="56">
         <v>0</v>
@@ -4553,24 +4566,24 @@
       <c r="I18" s="71"/>
       <c r="J18" s="71"/>
     </row>
-    <row r="19" spans="1:10" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="49" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>254</v>
+        <v>67</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>68</v>
+        <v>270</v>
       </c>
       <c r="D19" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E19" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="F19" s="56" t="s">
-        <v>132</v>
+        <v>133</v>
+      </c>
+      <c r="F19" s="56">
+        <v>0</v>
       </c>
       <c r="G19" s="75">
         <v>0</v>
@@ -4580,22 +4593,22 @@
     </row>
     <row r="20" spans="1:10" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>87</v>
+        <v>254</v>
       </c>
       <c r="B20" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>255</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E20" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="F20" s="56">
-        <v>0</v>
+        <v>131</v>
+      </c>
+      <c r="F20" s="56" t="s">
+        <v>132</v>
       </c>
       <c r="G20" s="75">
         <v>0</v>
@@ -4603,21 +4616,21 @@
       <c r="I20" s="71"/>
       <c r="J20" s="71"/>
     </row>
-    <row r="21" spans="1:10" s="49" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="49" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>254</v>
+        <v>87</v>
       </c>
       <c r="B21" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>79</v>
+        <v>255</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E21" s="56" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="F21" s="56">
         <v>0</v>
@@ -4628,30 +4641,55 @@
       <c r="I21" s="71"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" spans="1:10" s="49" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="B22" s="13" t="s">
+    <row r="22" spans="1:10" s="49" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="E22" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="F22" s="76">
-        <v>0</v>
-      </c>
-      <c r="G22" s="77">
+      <c r="C22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" s="56">
+        <v>0</v>
+      </c>
+      <c r="G22" s="75">
         <v>0</v>
       </c>
       <c r="I22" s="71"/>
       <c r="J22" s="71"/>
+    </row>
+    <row r="23" spans="1:10" s="49" customFormat="1" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="76" t="s">
+        <v>271</v>
+      </c>
+      <c r="F23" s="76">
+        <v>0</v>
+      </c>
+      <c r="G23" s="77">
+        <v>0</v>
+      </c>
+      <c r="I23" s="71"/>
+      <c r="J23" s="71"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5075,7 +5113,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
